--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H2">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I2">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J2">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.591717333333333</v>
+        <v>8.141899</v>
       </c>
       <c r="N2">
-        <v>25.775152</v>
+        <v>24.425697</v>
       </c>
       <c r="O2">
-        <v>0.08461542565075156</v>
+        <v>0.1319208574566759</v>
       </c>
       <c r="P2">
-        <v>0.08461542565075157</v>
+        <v>0.1319208574566759</v>
       </c>
       <c r="Q2">
-        <v>9.793753002476445</v>
+        <v>11.87135011627667</v>
       </c>
       <c r="R2">
-        <v>88.14377702228799</v>
+        <v>106.84215104649</v>
       </c>
       <c r="S2">
-        <v>0.01843379751641236</v>
+        <v>0.03065271501728495</v>
       </c>
       <c r="T2">
-        <v>0.01843379751641237</v>
+        <v>0.03065271501728495</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H3">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I3">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J3">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>49.630572</v>
       </c>
       <c r="O3">
-        <v>0.1629286987355214</v>
+        <v>0.2680499808994311</v>
       </c>
       <c r="P3">
-        <v>0.1629286987355215</v>
+        <v>0.2680499808994311</v>
       </c>
       <c r="Q3">
-        <v>18.858067783252</v>
+        <v>24.12139545836</v>
       </c>
       <c r="R3">
-        <v>169.722610049268</v>
+        <v>217.09255912524</v>
       </c>
       <c r="S3">
-        <v>0.03549464673852263</v>
+        <v>0.06228324946718377</v>
       </c>
       <c r="T3">
-        <v>0.03549464673852264</v>
+        <v>0.06228324946718376</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H4">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I4">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J4">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.53801933333333</v>
+        <v>11.387163</v>
       </c>
       <c r="N4">
-        <v>106.614058</v>
+        <v>34.161489</v>
       </c>
       <c r="O4">
-        <v>0.3499957594051789</v>
+        <v>0.1845029405251692</v>
       </c>
       <c r="P4">
-        <v>0.3499957594051789</v>
+        <v>0.1845029405251692</v>
       </c>
       <c r="Q4">
-        <v>40.5100133121891</v>
+        <v>16.60312892657</v>
       </c>
       <c r="R4">
-        <v>364.5901198097019</v>
+        <v>149.42816033913</v>
       </c>
       <c r="S4">
-        <v>0.07624792891910176</v>
+        <v>0.04287052225707683</v>
       </c>
       <c r="T4">
-        <v>0.07624792891910179</v>
+        <v>0.04287052225707683</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H5">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I5">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J5">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.94147133333333</v>
+        <v>10.07930033333333</v>
       </c>
       <c r="N5">
-        <v>44.824414</v>
+        <v>30.237901</v>
       </c>
       <c r="O5">
-        <v>0.1471509021617218</v>
+        <v>0.163312016341236</v>
       </c>
       <c r="P5">
-        <v>0.1471509021617218</v>
+        <v>0.163312016341236</v>
       </c>
       <c r="Q5">
-        <v>17.03187780218511</v>
+        <v>14.69619104635222</v>
       </c>
       <c r="R5">
-        <v>153.286900219666</v>
+        <v>132.26571941717</v>
       </c>
       <c r="S5">
-        <v>0.03205739277377839</v>
+        <v>0.0379466658443309</v>
       </c>
       <c r="T5">
-        <v>0.0320573927737784</v>
+        <v>0.0379466658443309</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H6">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I6">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J6">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.92369633333334</v>
+        <v>15.56617066666666</v>
       </c>
       <c r="N6">
-        <v>77.771089</v>
+        <v>46.69851199999999</v>
       </c>
       <c r="O6">
-        <v>0.2553092140468263</v>
+        <v>0.2522142047774878</v>
       </c>
       <c r="P6">
-        <v>0.2553092140468263</v>
+        <v>0.2522142047774878</v>
       </c>
       <c r="Q6">
-        <v>29.55058563377678</v>
+        <v>22.69635891500444</v>
       </c>
       <c r="R6">
-        <v>265.955270703991</v>
+        <v>204.26723023504</v>
       </c>
       <c r="S6">
-        <v>0.05562009904953752</v>
+        <v>0.05860369839465631</v>
       </c>
       <c r="T6">
-        <v>0.05562009904953753</v>
+        <v>0.0586036983946563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>1.902924</v>
       </c>
       <c r="H7">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I7">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J7">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.591717333333333</v>
+        <v>8.141899</v>
       </c>
       <c r="N7">
-        <v>25.775152</v>
+        <v>24.425697</v>
       </c>
       <c r="O7">
-        <v>0.08461542565075156</v>
+        <v>0.1319208574566759</v>
       </c>
       <c r="P7">
-        <v>0.08461542565075157</v>
+        <v>0.1319208574566759</v>
       </c>
       <c r="Q7">
-        <v>16.349385114816</v>
+        <v>15.493415012676</v>
       </c>
       <c r="R7">
-        <v>147.144466033344</v>
+        <v>139.440735114084</v>
       </c>
       <c r="S7">
-        <v>0.03077280534317716</v>
+        <v>0.04000515782757777</v>
       </c>
       <c r="T7">
-        <v>0.03077280534317717</v>
+        <v>0.04000515782757777</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>1.902924</v>
       </c>
       <c r="H8">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I8">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J8">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>49.630572</v>
       </c>
       <c r="O8">
-        <v>0.1629286987355214</v>
+        <v>0.2680499808994311</v>
       </c>
       <c r="P8">
-        <v>0.1629286987355215</v>
+        <v>0.2680499808994311</v>
       </c>
       <c r="Q8">
-        <v>31.48106886417601</v>
+        <v>31.481068864176</v>
       </c>
       <c r="R8">
         <v>283.329619777584</v>
       </c>
       <c r="S8">
-        <v>0.05925365372148103</v>
+        <v>0.08128647734936539</v>
       </c>
       <c r="T8">
-        <v>0.05925365372148104</v>
+        <v>0.08128647734936539</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>1.902924</v>
       </c>
       <c r="H9">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I9">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J9">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.53801933333333</v>
+        <v>11.387163</v>
       </c>
       <c r="N9">
-        <v>106.614058</v>
+        <v>34.161489</v>
       </c>
       <c r="O9">
-        <v>0.3499957594051789</v>
+        <v>0.1845029405251692</v>
       </c>
       <c r="P9">
-        <v>0.3499957594051789</v>
+        <v>0.1845029405251692</v>
       </c>
       <c r="Q9">
-        <v>67.62614990186401</v>
+        <v>21.668905764612</v>
       </c>
       <c r="R9">
-        <v>608.6353491167761</v>
+        <v>195.020151881508</v>
       </c>
       <c r="S9">
-        <v>0.1272859090677797</v>
+        <v>0.0559507374168304</v>
       </c>
       <c r="T9">
-        <v>0.1272859090677797</v>
+        <v>0.05595073741683041</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>1.902924</v>
       </c>
       <c r="H10">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I10">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J10">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.94147133333333</v>
+        <v>10.07930033333333</v>
       </c>
       <c r="N10">
-        <v>44.824414</v>
+        <v>30.237901</v>
       </c>
       <c r="O10">
-        <v>0.1471509021617218</v>
+        <v>0.163312016341236</v>
       </c>
       <c r="P10">
-        <v>0.1471509021617218</v>
+        <v>0.163312016341236</v>
       </c>
       <c r="Q10">
-        <v>28.432484395512</v>
+        <v>19.180142507508</v>
       </c>
       <c r="R10">
-        <v>255.892359559608</v>
+        <v>172.621282567572</v>
       </c>
       <c r="S10">
-        <v>0.05351560939947067</v>
+        <v>0.0495245643094513</v>
       </c>
       <c r="T10">
-        <v>0.05351560939947068</v>
+        <v>0.0495245643094513</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>1.902924</v>
       </c>
       <c r="H11">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I11">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J11">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.92369633333334</v>
+        <v>15.56617066666666</v>
       </c>
       <c r="N11">
-        <v>77.771089</v>
+        <v>46.69851199999999</v>
       </c>
       <c r="O11">
-        <v>0.2553092140468263</v>
+        <v>0.2522142047774878</v>
       </c>
       <c r="P11">
-        <v>0.2553092140468263</v>
+        <v>0.2522142047774878</v>
       </c>
       <c r="Q11">
-        <v>49.33082392141201</v>
+        <v>29.621239749696</v>
       </c>
       <c r="R11">
-        <v>443.9774152927081</v>
+        <v>266.5911577472639</v>
       </c>
       <c r="S11">
-        <v>0.09285045469853707</v>
+        <v>0.07648425929761735</v>
       </c>
       <c r="T11">
-        <v>0.09285045469853707</v>
+        <v>0.07648425929761735</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H12">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I12">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J12">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.591717333333333</v>
+        <v>8.141899</v>
       </c>
       <c r="N12">
-        <v>25.775152</v>
+        <v>24.425697</v>
       </c>
       <c r="O12">
-        <v>0.08461542565075156</v>
+        <v>0.1319208574566759</v>
       </c>
       <c r="P12">
-        <v>0.08461542565075157</v>
+        <v>0.1319208574566759</v>
       </c>
       <c r="Q12">
-        <v>18.81247009555911</v>
+        <v>23.72626173847233</v>
       </c>
       <c r="R12">
-        <v>169.312230860032</v>
+        <v>213.536355646251</v>
       </c>
       <c r="S12">
-        <v>0.03540882279116202</v>
+        <v>0.0612629846118132</v>
       </c>
       <c r="T12">
-        <v>0.03540882279116203</v>
+        <v>0.0612629846118132</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H13">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I13">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J13">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>49.630572</v>
       </c>
       <c r="O13">
-        <v>0.1629286987355214</v>
+        <v>0.2680499808994311</v>
       </c>
       <c r="P13">
-        <v>0.1629286987355215</v>
+        <v>0.2680499808994311</v>
       </c>
       <c r="Q13">
-        <v>36.223788382528</v>
+        <v>48.209389541764</v>
       </c>
       <c r="R13">
-        <v>326.014095442752</v>
+        <v>433.884505875876</v>
       </c>
       <c r="S13">
-        <v>0.06818039827551775</v>
+        <v>0.124480254082882</v>
       </c>
       <c r="T13">
-        <v>0.06818039827551778</v>
+        <v>0.124480254082882</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H14">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I14">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J14">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>35.53801933333333</v>
+        <v>11.387163</v>
       </c>
       <c r="N14">
-        <v>106.614058</v>
+        <v>34.161489</v>
       </c>
       <c r="O14">
-        <v>0.3499957594051789</v>
+        <v>0.1845029405251692</v>
       </c>
       <c r="P14">
-        <v>0.3499957594051789</v>
+        <v>0.1845029405251692</v>
       </c>
       <c r="Q14">
-        <v>77.81423666836977</v>
+        <v>33.18326717104301</v>
       </c>
       <c r="R14">
-        <v>700.328130015328</v>
+        <v>298.649404539387</v>
       </c>
       <c r="S14">
-        <v>0.1464619214182973</v>
+        <v>0.08568168085126195</v>
       </c>
       <c r="T14">
-        <v>0.1464619214182974</v>
+        <v>0.08568168085126196</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H15">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I15">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J15">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.94147133333333</v>
+        <v>10.07930033333333</v>
       </c>
       <c r="N15">
-        <v>44.824414</v>
+        <v>30.237901</v>
       </c>
       <c r="O15">
-        <v>0.1471509021617218</v>
+        <v>0.163312016341236</v>
       </c>
       <c r="P15">
-        <v>0.1471509021617218</v>
+        <v>0.163312016341236</v>
       </c>
       <c r="Q15">
-        <v>32.71592531931378</v>
+        <v>29.37203198533145</v>
       </c>
       <c r="R15">
-        <v>294.443327873824</v>
+        <v>264.348287867983</v>
       </c>
       <c r="S15">
-        <v>0.06157789998847269</v>
+        <v>0.07584078618745378</v>
       </c>
       <c r="T15">
-        <v>0.06157789998847272</v>
+        <v>0.07584078618745378</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H16">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I16">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J16">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.92369633333334</v>
+        <v>15.56617066666666</v>
       </c>
       <c r="N16">
-        <v>77.771089</v>
+        <v>46.69851199999999</v>
       </c>
       <c r="O16">
-        <v>0.2553092140468263</v>
+        <v>0.2522142047774878</v>
       </c>
       <c r="P16">
-        <v>0.2553092140468263</v>
+        <v>0.2522142047774878</v>
       </c>
       <c r="Q16">
-        <v>56.76266375118045</v>
+        <v>45.36128973143288</v>
       </c>
       <c r="R16">
-        <v>510.863973760624</v>
+        <v>408.251607582896</v>
       </c>
       <c r="S16">
-        <v>0.1068386602987517</v>
+        <v>0.1171262470852141</v>
       </c>
       <c r="T16">
-        <v>0.1068386602987517</v>
+        <v>0.1171262470852141</v>
       </c>
     </row>
   </sheetData>
